--- a/References/RiskPerceptions_Codebook.xlsx
+++ b/References/RiskPerceptions_Codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelynreeves/Desktop/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20080F-E36D-E845-B29F-02D2DCC681AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9DE33-A4FA-8C48-8C79-60BA2C35BB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="580" windowWidth="21800" windowHeight="12120" xr2:uid="{900F0CF7-672E-5E4C-AD1D-69ADF59E73E2}"/>
   </bookViews>
